--- a/data/trans_bre/P22_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,08</t>
+          <t>16,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>14,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>59,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>24,97%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31,57%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44,38%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,17; 30,64</t>
+          <t>4,01; 27,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 13,05</t>
+          <t>-0,11; 17,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 16,83</t>
+          <t>1,76; 18,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 13,66</t>
+          <t>0,76; 29,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,83; 148,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 43,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 60,59</t>
+          <t>11,38; 122,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 41,66</t>
+          <t>-0,64; 63,06</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 69,41</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 127,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 14,85</t>
+          <t>-1,46; 14,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 12,6</t>
+          <t>-1,53; 12,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 14,41</t>
+          <t>2,56; 15,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 18,02</t>
+          <t>-4,4; 13,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 45,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 40,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 45,03</t>
+          <t>-3,59; 42,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 60,45</t>
+          <t>-4,09; 38,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 48,38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 40,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,13</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>34,67%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 11,18</t>
+          <t>-0,09; 16,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 17,34</t>
+          <t>4,32; 18,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 12,04</t>
+          <t>-0,51; 12,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 10,11</t>
+          <t>-2,61; 14,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 30,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,93; 56,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 38,19</t>
+          <t>-0,89; 51,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 32,37</t>
+          <t>10,81; 61,3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 39,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 46,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 13,46</t>
+          <t>2,56; 15,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 11,17</t>
+          <t>-2,06; 13,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 11,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 11,27</t>
+          <t>-2,87; 13,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 40,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 35,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 35,82</t>
+          <t>6,77; 48,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 34,51</t>
+          <t>-5,27; 46,65</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 45,51</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,05</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,81</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,36</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,43%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 13,2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 11,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 12,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 11,62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,67; 39,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 34,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 37,47</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 36,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P22_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P22_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>16,37</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,59</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,78</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>59,35%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>24,97%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>31,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>44,38%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>18.3847377434362</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.114014699076389</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.30390518269718</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>15.13604730611764</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.6959960292349127</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2429682534284395</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3406889695722125</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.4532507424885179</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 27,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 17,6</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,76; 18,56</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 29,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>11,38; 122,89</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 63,06</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 69,41</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 127,49</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.985793369797295</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.4887030550319058</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.092648326228341</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.677878026504538</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.1726806172517733</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.009497194476904815</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.08651369757241156</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.03379907447499057</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.85858474486838</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.29681354747563</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.00200796858404</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>30.56308598751744</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.413530446212151</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6280239900143488</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7183426449384417</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.317175392283223</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,18</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,89</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,09</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,3%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>25,64%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,44%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 14,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 12,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 15,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 13,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,59; 42,61</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 38,47</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 48,38</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-10,79; 40,16</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>8.451637474503764</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.186643707793582</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.223359501186756</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.076495393791475</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.2208855527360238</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1725640491196092</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2637875995187614</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1353535648675194</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,99</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,51%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>34,67%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,75%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>16,23%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.443827664134482</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.288831652630438</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.097448560049445</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.299651668276277</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.01028946169728296</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.03294884818251086</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.07680907077203264</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1038465359328044</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 16,51</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 18,81</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 12,51</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 14,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 51,14</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>10,81; 61,3</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 39,5</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 46,0</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.09661049952049</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.20233614361352</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.30304696004026</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.22978949236823</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.4833542975046689</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3906976083650974</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.4943992852085719</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3989365407134</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,26</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,68</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26,42%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,96%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,93%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>7.89811238470911</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.44989775233468</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.404214099493299</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.934372474267513</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2151996257020238</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3289249622740679</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1503821174762558</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1699159067767088</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 15,53</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 13,85</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 13,35</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,77; 48,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; 46,65</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 45,51</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.4391087257901668</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.824713752335983</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.8955464546047063</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.264475982136783</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.009411623668059746</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.09210242552371709</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.02205926105108843</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.06241977413486831</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.68461621992864</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.21020262235144</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.11706275592365</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.13111144159778</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.5482394685045853</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5829483820038271</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3787253728698758</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.4621986856266074</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,36</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>25,19%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>22,43%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>23,81%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>20,02%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 13,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 11,36</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 12,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 11,62</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>12,67; 39,89</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>10,36; 34,53</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>11,31; 37,47</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>6,71; 36,27</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.722208552003181</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.316318554918867</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.429863743024974</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.596964849923399</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.270859011188472</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2374892956838349</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2415132472148029</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2121066598821275</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.827448130255279</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.866803009502853</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.273485010717204</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.480281689294893</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.09641098472847587</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1003717453051447</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1135433351449315</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.0641995018589214</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>15.17426457647371</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.75841922011621</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.29308003399682</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.49576277294651</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.4611818329714046</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3940728463135226</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3785870563113481</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4207356486320272</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
